--- a/1.Testing-APP-papertrlAppFiles/papertrlAppFiles/reportTemplates/vendor_list.xlsx
+++ b/1.Testing-APP-papertrlAppFiles/papertrlAppFiles/reportTemplates/vendor_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavindu Thiwanka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasin\OneDrive\Desktop\HOTFIXES\Remove character count validation in Vendor upload template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF4595D-3F8C-482F-BF38-48E617763334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D22D718-55DC-4999-B0C2-376238043A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,25 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="297">
-  <si>
-    <t>Vendor Code has to be unique
-and the field is (Optional)</t>
-  </si>
-  <si>
-    <t>Vendor Name is (Mandatory*)</t>
-  </si>
-  <si>
-    <t>Contact Name is (Optional)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="299">
   <si>
     <t>Contact Number is (Optional)</t>
-  </si>
-  <si>
-    <t>Email Address field is (Mandatory*)</t>
-  </si>
-  <si>
-    <t>Address Line 2 is (Optional)</t>
   </si>
   <si>
     <t>Country Field is (Mandatory*)</t>
@@ -964,17 +948,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Address Line 1 is (Optional)
-This will be used for Check and Virtual Card payments.</t>
-  </si>
-  <si>
-    <t>City Field is (Optional)     This will be used for Check and Virtual Card payments.</t>
-  </si>
-  <si>
     <t>State field is (Optional)       This will be used for Check and Virtual Card payments.</t>
-  </si>
-  <si>
-    <t>Zip Code field is (Optional)                           This will be used for Check and Virtual Card payments.</t>
   </si>
   <si>
     <t xml:space="preserve">Accepted Payment Type(s) is (Optional)     
@@ -984,14 +958,211 @@
     <t>Remittance Email Address for Virtual Card payments (Optional)</t>
   </si>
   <si>
-    <t>Company Name for ACH, Check, and Virtual Card Payments (Optional)                           This will be used for Check and Virtual Card payments.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vendor Code has to be unique
+and the field is (Optional)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 50)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email Address field is (Mandatory*)     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 150)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address Line 2 is (Optional)                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 35)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">City Field is (Optional)           This will be used for Check and Virtual Card payments.         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zip Code field is (Optional)                           This will be used for Check and Virtual Card payments.                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Contact Name is (Optional) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 150)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address Line 1 is (Optional)
+This will be used for Check and Virtual Card payments.                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 35)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Vendor Name is (Mandatory*) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 150)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer Ref Number is (Optional)                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 73)</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer Ref Number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Company Name for ACH, Check, and Virtual Card Payments (Optional)                           This will be used for Check and Virtual Card payments.                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Maximum character length 80)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,6 +1207,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1097,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1145,6 +1323,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,1183 +1543,1191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB957"/>
+  <dimension ref="A1:AC957"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.4140625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="10" width="18.4140625" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="11" customWidth="1"/>
-    <col min="12" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="15" width="18.4140625" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.6640625" customWidth="1"/>
-    <col min="19" max="19" width="18.4140625" customWidth="1"/>
-    <col min="20" max="20" width="18.4140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="23.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="18.4140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="28" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.796875" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" style="11" customWidth="1"/>
+    <col min="5" max="6" width="34.69921875" customWidth="1"/>
+    <col min="7" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" customWidth="1"/>
+    <col min="10" max="10" width="24.19921875" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" customWidth="1"/>
+    <col min="12" max="12" width="23.69921875" style="11" customWidth="1"/>
+    <col min="13" max="14" width="30.69921875" customWidth="1"/>
+    <col min="15" max="16" width="18.3984375" customWidth="1"/>
+    <col min="17" max="17" width="30.69921875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="29.69921875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="32.5" style="11" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" customWidth="1"/>
+    <col min="21" max="21" width="18.3984375" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="23.69921875" style="11" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="32.69921875" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="18.3984375" customWidth="1" collapsed="1"/>
+    <col min="27" max="29" width="32.69921875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="J1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="AA1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="29" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="Q2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="S2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="T2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="U2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="V2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="W2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="AA2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O1048576" xr:uid="{ECF62213-D1DF-485A-A007-F36544878CE6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576" xr:uid="{ECF62213-D1DF-485A-A007-F36544878CE6}">
       <formula1>classification_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T39" xr:uid="{C6424C03-7CC1-4C78-BFA9-D6BE2D562D2A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U39" xr:uid="{C6424C03-7CC1-4C78-BFA9-D6BE2D562D2A}">
       <formula1>"Individual, Business"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3" xr:uid="{19B30229-92AB-4AA8-849A-6906C5D99F9C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3" xr:uid="{19B30229-92AB-4AA8-849A-6906C5D99F9C}">
       <formula1>"First Class (F), Priority (P), Next Day (N)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3 N3:N1048576 X3:X1048576" xr:uid="{D5F94FD4-25C6-4EBB-97C2-9330CBBB5A2A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3 O3:O1048576 Y3:Y1048576" xr:uid="{D5F94FD4-25C6-4EBB-97C2-9330CBBB5A2A}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576" xr:uid="{EF8620A7-AF2F-4B05-9142-D11233373FA3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{EF8620A7-AF2F-4B05-9142-D11233373FA3}">
       <formula1>"Checking,Savings"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2551,7 +2740,7 @@
           <x14:formula1>
             <xm:f>'Country List'!$A$1:$A$233</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H1048576</xm:sqref>
+          <xm:sqref>I3:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2568,59 +2757,59 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2637,1174 +2826,1174 @@
       <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
